--- a/Modulo5/src/out/info_estados/Wyoming.xlsx
+++ b/Modulo5/src/out/info_estados/Wyoming.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="44">
   <si>
     <t>state</t>
   </si>
@@ -40,10 +40,10 @@
     <t>fraction_votes</t>
   </si>
   <si>
-    <t>nueva_columna</t>
-  </si>
-  <si>
-    <t>columna_aumentada</t>
+    <t>nuevaColumna</t>
+  </si>
+  <si>
+    <t>slogan</t>
   </si>
   <si>
     <t>letra_inicial</t>
@@ -140,6 +140,9 @@
   </si>
   <si>
     <t>Hillary Clinton</t>
+  </si>
+  <si>
+    <t>Un buen partido</t>
   </si>
   <si>
     <t>W</t>
@@ -578,14 +581,14 @@
       <c r="I2">
         <v>1</v>
       </c>
-      <c r="J2">
-        <v>3</v>
+      <c r="J2" t="s">
+        <v>42</v>
       </c>
       <c r="K2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L2">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="M2">
         <v>56001</v>
@@ -622,14 +625,14 @@
       <c r="I3">
         <v>1</v>
       </c>
-      <c r="J3">
-        <v>3</v>
+      <c r="J3" t="s">
+        <v>42</v>
       </c>
       <c r="K3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="M3">
         <v>56001</v>
@@ -666,14 +669,14 @@
       <c r="I4">
         <v>1</v>
       </c>
-      <c r="J4">
+      <c r="J4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L4">
         <v>3</v>
-      </c>
-      <c r="K4" t="s">
-        <v>42</v>
-      </c>
-      <c r="L4">
-        <v>4</v>
       </c>
       <c r="M4">
         <v>56003</v>
@@ -710,14 +713,14 @@
       <c r="I5">
         <v>1</v>
       </c>
-      <c r="J5">
+      <c r="J5" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" t="s">
+        <v>43</v>
+      </c>
+      <c r="L5">
         <v>3</v>
-      </c>
-      <c r="K5" t="s">
-        <v>42</v>
-      </c>
-      <c r="L5">
-        <v>4</v>
       </c>
       <c r="M5">
         <v>56003</v>
@@ -754,14 +757,14 @@
       <c r="I6">
         <v>1</v>
       </c>
-      <c r="J6">
-        <v>3</v>
+      <c r="J6" t="s">
+        <v>42</v>
       </c>
       <c r="K6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L6">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="M6">
         <v>56005</v>
@@ -798,14 +801,14 @@
       <c r="I7">
         <v>1</v>
       </c>
-      <c r="J7">
-        <v>3</v>
+      <c r="J7" t="s">
+        <v>42</v>
       </c>
       <c r="K7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M7">
         <v>56005</v>
@@ -842,11 +845,11 @@
       <c r="I8">
         <v>1</v>
       </c>
-      <c r="J8">
-        <v>3</v>
+      <c r="J8" t="s">
+        <v>42</v>
       </c>
       <c r="K8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L8">
         <v>4</v>
@@ -886,14 +889,14 @@
       <c r="I9">
         <v>1</v>
       </c>
-      <c r="J9">
-        <v>3</v>
+      <c r="J9" t="s">
+        <v>42</v>
       </c>
       <c r="K9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M9">
         <v>56007</v>
@@ -930,11 +933,11 @@
       <c r="I10">
         <v>1</v>
       </c>
-      <c r="J10">
-        <v>3</v>
+      <c r="J10" t="s">
+        <v>42</v>
       </c>
       <c r="K10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L10">
         <v>4</v>
@@ -974,14 +977,14 @@
       <c r="I11">
         <v>1</v>
       </c>
-      <c r="J11">
+      <c r="J11" t="s">
+        <v>42</v>
+      </c>
+      <c r="K11" t="s">
+        <v>43</v>
+      </c>
+      <c r="L11">
         <v>3</v>
-      </c>
-      <c r="K11" t="s">
-        <v>42</v>
-      </c>
-      <c r="L11">
-        <v>4</v>
       </c>
       <c r="M11">
         <v>56009</v>
@@ -1018,14 +1021,14 @@
       <c r="I12">
         <v>1</v>
       </c>
-      <c r="J12">
-        <v>3</v>
+      <c r="J12" t="s">
+        <v>42</v>
       </c>
       <c r="K12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M12">
         <v>56011</v>
@@ -1062,14 +1065,14 @@
       <c r="I13">
         <v>1</v>
       </c>
-      <c r="J13">
-        <v>3</v>
+      <c r="J13" t="s">
+        <v>42</v>
       </c>
       <c r="K13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M13">
         <v>56011</v>
@@ -1106,14 +1109,14 @@
       <c r="I14">
         <v>1</v>
       </c>
-      <c r="J14">
-        <v>3</v>
+      <c r="J14" t="s">
+        <v>42</v>
       </c>
       <c r="K14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L14">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="M14">
         <v>56013</v>
@@ -1150,14 +1153,14 @@
       <c r="I15">
         <v>1</v>
       </c>
-      <c r="J15">
-        <v>3</v>
+      <c r="J15" t="s">
+        <v>42</v>
       </c>
       <c r="K15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L15">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="M15">
         <v>56013</v>
@@ -1194,14 +1197,14 @@
       <c r="I16">
         <v>1</v>
       </c>
-      <c r="J16">
+      <c r="J16" t="s">
+        <v>42</v>
+      </c>
+      <c r="K16" t="s">
+        <v>43</v>
+      </c>
+      <c r="L16">
         <v>3</v>
-      </c>
-      <c r="K16" t="s">
-        <v>42</v>
-      </c>
-      <c r="L16">
-        <v>4</v>
       </c>
       <c r="M16">
         <v>56015</v>
@@ -1238,11 +1241,11 @@
       <c r="I17">
         <v>1</v>
       </c>
-      <c r="J17">
-        <v>3</v>
+      <c r="J17" t="s">
+        <v>42</v>
       </c>
       <c r="K17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L17">
         <v>4</v>
@@ -1282,14 +1285,14 @@
       <c r="I18">
         <v>1</v>
       </c>
-      <c r="J18">
-        <v>3</v>
+      <c r="J18" t="s">
+        <v>42</v>
       </c>
       <c r="K18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M18">
         <v>56017</v>
@@ -1326,14 +1329,14 @@
       <c r="I19">
         <v>1</v>
       </c>
-      <c r="J19">
-        <v>3</v>
+      <c r="J19" t="s">
+        <v>42</v>
       </c>
       <c r="K19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M19">
         <v>56017</v>
@@ -1370,14 +1373,14 @@
       <c r="I20">
         <v>1</v>
       </c>
-      <c r="J20">
-        <v>3</v>
+      <c r="J20" t="s">
+        <v>42</v>
       </c>
       <c r="K20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M20">
         <v>56019</v>
@@ -1414,14 +1417,14 @@
       <c r="I21">
         <v>1</v>
       </c>
-      <c r="J21">
-        <v>3</v>
+      <c r="J21" t="s">
+        <v>42</v>
       </c>
       <c r="K21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M21">
         <v>56019</v>
@@ -1458,14 +1461,14 @@
       <c r="I22">
         <v>1</v>
       </c>
-      <c r="J22">
-        <v>3</v>
+      <c r="J22" t="s">
+        <v>42</v>
       </c>
       <c r="K22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L22">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="M22">
         <v>56021</v>
@@ -1502,14 +1505,14 @@
       <c r="I23">
         <v>1</v>
       </c>
-      <c r="J23">
-        <v>3</v>
+      <c r="J23" t="s">
+        <v>42</v>
       </c>
       <c r="K23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L23">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="M23">
         <v>56021</v>
@@ -1546,11 +1549,11 @@
       <c r="I24">
         <v>1</v>
       </c>
-      <c r="J24">
-        <v>3</v>
+      <c r="J24" t="s">
+        <v>42</v>
       </c>
       <c r="K24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L24">
         <v>4</v>
@@ -1590,11 +1593,11 @@
       <c r="I25">
         <v>1</v>
       </c>
-      <c r="J25">
-        <v>3</v>
+      <c r="J25" t="s">
+        <v>42</v>
       </c>
       <c r="K25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L25">
         <v>4</v>
@@ -1634,14 +1637,14 @@
       <c r="I26">
         <v>1</v>
       </c>
-      <c r="J26">
-        <v>3</v>
+      <c r="J26" t="s">
+        <v>42</v>
       </c>
       <c r="K26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L26">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="M26">
         <v>56025</v>
@@ -1678,14 +1681,14 @@
       <c r="I27">
         <v>1</v>
       </c>
-      <c r="J27">
-        <v>3</v>
+      <c r="J27" t="s">
+        <v>42</v>
       </c>
       <c r="K27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L27">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="M27">
         <v>56025</v>
@@ -1722,14 +1725,14 @@
       <c r="I28">
         <v>1</v>
       </c>
-      <c r="J28">
+      <c r="J28" t="s">
+        <v>42</v>
+      </c>
+      <c r="K28" t="s">
+        <v>43</v>
+      </c>
+      <c r="L28">
         <v>3</v>
-      </c>
-      <c r="K28" t="s">
-        <v>42</v>
-      </c>
-      <c r="L28">
-        <v>4</v>
       </c>
       <c r="M28">
         <v>56027</v>
@@ -1766,14 +1769,14 @@
       <c r="I29">
         <v>1</v>
       </c>
-      <c r="J29">
-        <v>3</v>
+      <c r="J29" t="s">
+        <v>42</v>
       </c>
       <c r="K29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L29">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M29">
         <v>56027</v>
@@ -1810,14 +1813,14 @@
       <c r="I30">
         <v>1</v>
       </c>
-      <c r="J30">
-        <v>3</v>
+      <c r="J30" t="s">
+        <v>42</v>
       </c>
       <c r="K30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L30">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="M30">
         <v>56029</v>
@@ -1854,14 +1857,14 @@
       <c r="I31">
         <v>1</v>
       </c>
-      <c r="J31">
-        <v>3</v>
+      <c r="J31" t="s">
+        <v>42</v>
       </c>
       <c r="K31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L31">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M31">
         <v>56029</v>
@@ -1898,14 +1901,14 @@
       <c r="I32">
         <v>1</v>
       </c>
-      <c r="J32">
+      <c r="J32" t="s">
+        <v>42</v>
+      </c>
+      <c r="K32" t="s">
+        <v>43</v>
+      </c>
+      <c r="L32">
         <v>3</v>
-      </c>
-      <c r="K32" t="s">
-        <v>42</v>
-      </c>
-      <c r="L32">
-        <v>4</v>
       </c>
       <c r="M32">
         <v>56031</v>
@@ -1942,14 +1945,14 @@
       <c r="I33">
         <v>1</v>
       </c>
-      <c r="J33">
-        <v>3</v>
+      <c r="J33" t="s">
+        <v>42</v>
       </c>
       <c r="K33" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L33">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M33">
         <v>56031</v>
@@ -1986,14 +1989,14 @@
       <c r="I34">
         <v>1</v>
       </c>
-      <c r="J34">
-        <v>3</v>
+      <c r="J34" t="s">
+        <v>42</v>
       </c>
       <c r="K34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L34">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M34">
         <v>56033</v>
@@ -2030,14 +2033,14 @@
       <c r="I35">
         <v>1</v>
       </c>
-      <c r="J35">
-        <v>3</v>
+      <c r="J35" t="s">
+        <v>42</v>
       </c>
       <c r="K35" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L35">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M35">
         <v>56033</v>
@@ -2074,11 +2077,11 @@
       <c r="I36">
         <v>1</v>
       </c>
-      <c r="J36">
-        <v>3</v>
+      <c r="J36" t="s">
+        <v>42</v>
       </c>
       <c r="K36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L36">
         <v>4</v>
@@ -2118,14 +2121,14 @@
       <c r="I37">
         <v>1</v>
       </c>
-      <c r="J37">
-        <v>3</v>
+      <c r="J37" t="s">
+        <v>42</v>
       </c>
       <c r="K37" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L37">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M37">
         <v>56035</v>
@@ -2162,14 +2165,14 @@
       <c r="I38">
         <v>1</v>
       </c>
-      <c r="J38">
-        <v>3</v>
+      <c r="J38" t="s">
+        <v>42</v>
       </c>
       <c r="K38" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L38">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="M38">
         <v>56037</v>
@@ -2206,14 +2209,14 @@
       <c r="I39">
         <v>1</v>
       </c>
-      <c r="J39">
-        <v>3</v>
+      <c r="J39" t="s">
+        <v>42</v>
       </c>
       <c r="K39" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L39">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="M39">
         <v>56037</v>
@@ -2250,14 +2253,14 @@
       <c r="I40">
         <v>1</v>
       </c>
-      <c r="J40">
-        <v>3</v>
+      <c r="J40" t="s">
+        <v>42</v>
       </c>
       <c r="K40" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L40">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M40">
         <v>56039</v>
@@ -2294,14 +2297,14 @@
       <c r="I41">
         <v>1</v>
       </c>
-      <c r="J41">
-        <v>3</v>
+      <c r="J41" t="s">
+        <v>42</v>
       </c>
       <c r="K41" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L41">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M41">
         <v>56039</v>
@@ -2338,14 +2341,14 @@
       <c r="I42">
         <v>1</v>
       </c>
-      <c r="J42">
-        <v>3</v>
+      <c r="J42" t="s">
+        <v>42</v>
       </c>
       <c r="K42" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L42">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M42">
         <v>56041</v>
@@ -2382,14 +2385,14 @@
       <c r="I43">
         <v>1</v>
       </c>
-      <c r="J43">
-        <v>3</v>
+      <c r="J43" t="s">
+        <v>42</v>
       </c>
       <c r="K43" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L43">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M43">
         <v>56041</v>
@@ -2426,14 +2429,14 @@
       <c r="I44">
         <v>1</v>
       </c>
-      <c r="J44">
-        <v>3</v>
+      <c r="J44" t="s">
+        <v>42</v>
       </c>
       <c r="K44" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L44">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M44">
         <v>56043</v>
@@ -2470,14 +2473,14 @@
       <c r="I45">
         <v>1</v>
       </c>
-      <c r="J45">
+      <c r="J45" t="s">
+        <v>42</v>
+      </c>
+      <c r="K45" t="s">
+        <v>43</v>
+      </c>
+      <c r="L45">
         <v>3</v>
-      </c>
-      <c r="K45" t="s">
-        <v>42</v>
-      </c>
-      <c r="L45">
-        <v>4</v>
       </c>
       <c r="M45">
         <v>56043</v>
@@ -2514,14 +2517,14 @@
       <c r="I46">
         <v>1</v>
       </c>
-      <c r="J46">
-        <v>3</v>
+      <c r="J46" t="s">
+        <v>42</v>
       </c>
       <c r="K46" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L46">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M46">
         <v>56045</v>
@@ -2558,14 +2561,14 @@
       <c r="I47">
         <v>1</v>
       </c>
-      <c r="J47">
-        <v>3</v>
+      <c r="J47" t="s">
+        <v>42</v>
       </c>
       <c r="K47" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L47">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M47">
         <v>56045</v>
